--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/registration_center_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/registration_center_h.xlsx
@@ -410,10 +410,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -504,16 +503,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -535,2487 +534,2487 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A16" activeCellId="0" sqref="A16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W:W"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="23" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
       <c r="W1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="D2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="G2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="H2" s="4" t="n">
         <v>34.52117</v>
       </c>
-      <c r="I2" s="0" t="n">
+      <c r="I2" s="4" t="n">
         <v>-6.453275</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="4" t="n">
         <v>14022</v>
       </c>
-      <c r="K2" s="0" t="n">
+      <c r="K2" s="4" t="n">
         <v>779517433</v>
       </c>
-      <c r="L2" s="0" t="s">
+      <c r="L2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="0" t="n">
+      <c r="M2" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" s="0" t="s">
+      <c r="N2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U2" s="0" t="s">
+      <c r="U2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V2" s="0" t="s">
+      <c r="V2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X2" s="0" t="s">
+      <c r="W2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="D3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="G3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="0" t="n">
+      <c r="H3" s="4" t="n">
         <v>34.52117</v>
       </c>
-      <c r="I3" s="0" t="n">
+      <c r="I3" s="4" t="n">
         <v>-6.453275</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="4" t="n">
         <v>14022</v>
       </c>
-      <c r="K3" s="0" t="n">
+      <c r="K3" s="4" t="n">
         <v>993556086</v>
       </c>
-      <c r="L3" s="0" t="s">
+      <c r="L3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="0" t="n">
+      <c r="M3" s="4" t="n">
         <v>3</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T3" s="0" t="s">
+      <c r="N3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="0" t="s">
+      <c r="U3" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="0" t="s">
+      <c r="V3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X3" s="0" t="s">
+      <c r="W3" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="D4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="G4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="0" t="n">
+      <c r="H4" s="4" t="n">
         <v>34.360207</v>
       </c>
-      <c r="I4" s="0" t="n">
+      <c r="I4" s="4" t="n">
         <v>-6.550075</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="4" t="n">
         <v>14053</v>
       </c>
-      <c r="K4" s="0" t="n">
+      <c r="K4" s="4" t="n">
         <v>753476995</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="L4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M4" s="0" t="n">
+      <c r="M4" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N4" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T4" s="0" t="s">
+      <c r="N4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U4" s="0" t="s">
+      <c r="U4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V4" s="0" t="s">
+      <c r="V4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X4" s="0" t="s">
+      <c r="W4" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="0" t="n">
+      <c r="H5" s="4" t="n">
         <v>34.360207</v>
       </c>
-      <c r="I5" s="0" t="n">
+      <c r="I5" s="4" t="n">
         <v>-6.550075</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="4" t="n">
         <v>14053</v>
       </c>
-      <c r="K5" s="0" t="n">
+      <c r="K5" s="4" t="n">
         <v>984996886</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="L5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="0" t="n">
+      <c r="M5" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N5" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S5" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T5" s="0" t="s">
+      <c r="N5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U5" s="0" t="s">
+      <c r="U5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V5" s="0" t="s">
+      <c r="V5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X5" s="0" t="s">
+      <c r="W5" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="0" t="s">
+      <c r="D6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="4" t="n">
         <v>34.405692</v>
       </c>
-      <c r="I6" s="0" t="n">
+      <c r="I6" s="4" t="n">
         <v>-6.433368</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="4" t="n">
         <v>14023</v>
       </c>
-      <c r="K6" s="0" t="n">
+      <c r="K6" s="4" t="n">
         <v>734239083</v>
       </c>
-      <c r="L6" s="0" t="s">
+      <c r="L6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="0" t="n">
+      <c r="M6" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="N6" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S6" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T6" s="0" t="s">
+      <c r="N6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U6" s="0" t="s">
+      <c r="U6" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V6" s="0" t="s">
+      <c r="V6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W6" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X6" s="0" t="s">
+      <c r="W6" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="0" t="s">
+      <c r="D7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="4" t="n">
         <v>34.405692</v>
       </c>
-      <c r="I7" s="0" t="n">
+      <c r="I7" s="4" t="n">
         <v>-6.433368</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="4" t="n">
         <v>14023</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="4" t="n">
         <v>675470523</v>
       </c>
-      <c r="L7" s="0" t="s">
+      <c r="L7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M7" s="0" t="n">
+      <c r="M7" s="4" t="n">
         <v>4</v>
       </c>
-      <c r="N7" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R7" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S7" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T7" s="0" t="s">
+      <c r="N7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U7" s="0" t="s">
+      <c r="U7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V7" s="0" t="s">
+      <c r="V7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W7" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X7" s="0" t="s">
+      <c r="W7" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="0" t="s">
+      <c r="D8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="G8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H8" s="0" t="n">
+      <c r="H8" s="4" t="n">
         <v>34.287879</v>
       </c>
-      <c r="I8" s="0" t="n">
+      <c r="I8" s="4" t="n">
         <v>-6.516428</v>
       </c>
-      <c r="J8" s="0" t="n">
+      <c r="J8" s="4" t="n">
         <v>14000</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="4" t="n">
         <v>937997757</v>
       </c>
-      <c r="L8" s="0" t="s">
+      <c r="L8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M8" s="0" t="n">
+      <c r="M8" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R8" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S8" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T8" s="0" t="s">
+      <c r="N8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U8" s="0" t="s">
+      <c r="U8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V8" s="0" t="s">
+      <c r="V8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X8" s="0" t="s">
+      <c r="W8" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="0" t="s">
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="0" t="s">
+      <c r="G9" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="0" t="n">
+      <c r="H9" s="4" t="n">
         <v>34.287879</v>
       </c>
-      <c r="I9" s="0" t="n">
+      <c r="I9" s="4" t="n">
         <v>-6.516428</v>
       </c>
-      <c r="J9" s="0" t="n">
+      <c r="J9" s="4" t="n">
         <v>14000</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="4" t="n">
         <v>852492117</v>
       </c>
-      <c r="L9" s="0" t="s">
+      <c r="L9" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="M9" s="0" t="n">
+      <c r="M9" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N9" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T9" s="0" t="s">
+      <c r="N9" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U9" s="0" t="s">
+      <c r="U9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V9" s="0" t="s">
+      <c r="V9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X9" s="0" t="s">
+      <c r="W9" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X9" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="0" t="s">
+      <c r="D10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="0" t="s">
+      <c r="G10" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="0" t="n">
+      <c r="H10" s="4" t="n">
         <v>34.256414</v>
       </c>
-      <c r="I10" s="0" t="n">
+      <c r="I10" s="4" t="n">
         <v>-6.675499</v>
       </c>
-      <c r="J10" s="0" t="n">
+      <c r="J10" s="4" t="n">
         <v>14110</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="4" t="n">
         <v>887311749</v>
       </c>
-      <c r="L10" s="0" t="s">
+      <c r="L10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M10" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T10" s="0" t="s">
+      <c r="M10" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U10" s="0" t="s">
+      <c r="U10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V10" s="0" t="s">
+      <c r="V10" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W10" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X10" s="0" t="s">
+      <c r="W10" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="0" t="s">
+      <c r="D11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G11" s="0" t="s">
+      <c r="G11" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="0" t="n">
+      <c r="H11" s="4" t="n">
         <v>34.256414</v>
       </c>
-      <c r="I11" s="0" t="n">
+      <c r="I11" s="4" t="n">
         <v>-6.675499</v>
       </c>
-      <c r="J11" s="0" t="n">
+      <c r="J11" s="4" t="n">
         <v>14110</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="4" t="n">
         <v>658302699</v>
       </c>
-      <c r="L11" s="0" t="s">
+      <c r="L11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T11" s="0" t="s">
+      <c r="M11" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U11" s="0" t="s">
+      <c r="U11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V11" s="0" t="s">
+      <c r="V11" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X11" s="0" t="s">
+      <c r="W11" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X11" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D12" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="0" t="s">
+      <c r="D12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G12" s="0" t="s">
+      <c r="G12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H12" s="0" t="n">
+      <c r="H12" s="4" t="n">
         <v>34.262477</v>
       </c>
-      <c r="I12" s="0" t="n">
+      <c r="I12" s="4" t="n">
         <v>-6.618605</v>
       </c>
-      <c r="J12" s="0" t="n">
+      <c r="J12" s="4" t="n">
         <v>14080</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="4" t="n">
         <v>915790305</v>
       </c>
-      <c r="L12" s="0" t="s">
+      <c r="L12" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M12" s="0" t="n">
+      <c r="M12" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N12" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T12" s="0" t="s">
+      <c r="N12" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P12" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U12" s="0" t="s">
+      <c r="U12" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V12" s="0" t="s">
+      <c r="V12" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W12" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X12" s="0" t="s">
+      <c r="W12" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X12" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D13" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="0" t="s">
+      <c r="D13" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="0" t="s">
+      <c r="G13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H13" s="0" t="n">
+      <c r="H13" s="4" t="n">
         <v>34.262477</v>
       </c>
-      <c r="I13" s="0" t="n">
+      <c r="I13" s="4" t="n">
         <v>-6.618605</v>
       </c>
-      <c r="J13" s="0" t="n">
+      <c r="J13" s="4" t="n">
         <v>14080</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="4" t="n">
         <v>888439793</v>
       </c>
-      <c r="L13" s="0" t="s">
+      <c r="L13" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="M13" s="0" t="n">
+      <c r="M13" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="N13" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T13" s="0" t="s">
+      <c r="N13" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P13" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U13" s="0" t="s">
+      <c r="U13" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V13" s="0" t="s">
+      <c r="V13" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="W13" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X13" s="0" t="s">
+      <c r="W13" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="0" t="s">
+      <c r="D14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="G14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H14" s="0" t="n">
+      <c r="H14" s="4" t="n">
         <v>34.192861</v>
       </c>
-      <c r="I14" s="0" t="n">
+      <c r="I14" s="4" t="n">
         <v>-6.683662</v>
       </c>
-      <c r="J14" s="0" t="n">
+      <c r="J14" s="4" t="n">
         <v>14025</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="4" t="n">
         <v>811552880</v>
       </c>
-      <c r="L14" s="0" t="s">
+      <c r="L14" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M14" s="0" t="n">
+      <c r="M14" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N14" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O14" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P14" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R14" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T14" s="0" t="s">
+      <c r="N14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U14" s="0" t="s">
+      <c r="U14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V14" s="0" t="s">
+      <c r="V14" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W14" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X14" s="0" t="s">
+      <c r="W14" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X14" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="C15" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="0" t="s">
+      <c r="D15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F15" s="0" t="s">
+      <c r="F15" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="0" t="n">
+      <c r="H15" s="4" t="n">
         <v>34.192861</v>
       </c>
-      <c r="I15" s="0" t="n">
+      <c r="I15" s="4" t="n">
         <v>-6.683662</v>
       </c>
-      <c r="J15" s="0" t="n">
+      <c r="J15" s="4" t="n">
         <v>14025</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="4" t="n">
         <v>753640112</v>
       </c>
-      <c r="L15" s="0" t="s">
+      <c r="L15" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="M15" s="0" t="n">
+      <c r="M15" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P15" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q15" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R15" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T15" s="0" t="s">
+      <c r="N15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U15" s="0" t="s">
+      <c r="U15" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V15" s="0" t="s">
+      <c r="V15" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="W15" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X15" s="0" t="s">
+      <c r="W15" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X15" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="C16" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="0" t="s">
+      <c r="D16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="F16" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H16" s="0" t="n">
+      <c r="H16" s="4" t="n">
         <v>34.522414</v>
       </c>
-      <c r="I16" s="0" t="n">
+      <c r="I16" s="4" t="n">
         <v>-6.320471</v>
       </c>
-      <c r="J16" s="0" t="n">
+      <c r="J16" s="4" t="n">
         <v>14050</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="4" t="n">
         <v>695325692</v>
       </c>
-      <c r="L16" s="0" t="s">
+      <c r="L16" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M16" s="0" t="n">
+      <c r="M16" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N16" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O16" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P16" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R16" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T16" s="0" t="s">
+      <c r="N16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R16" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U16" s="0" t="s">
+      <c r="U16" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V16" s="0" t="s">
+      <c r="V16" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W16" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X16" s="0" t="s">
+      <c r="W16" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X16" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="0" t="s">
+      <c r="D17" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="F17" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="0" t="n">
+      <c r="H17" s="4" t="n">
         <v>34.522414</v>
       </c>
-      <c r="I17" s="0" t="n">
+      <c r="I17" s="4" t="n">
         <v>-6.320471</v>
       </c>
-      <c r="J17" s="0" t="n">
+      <c r="J17" s="4" t="n">
         <v>14050</v>
       </c>
-      <c r="K17" s="0" t="n">
+      <c r="K17" s="4" t="n">
         <v>862899075</v>
       </c>
-      <c r="L17" s="0" t="s">
+      <c r="L17" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="M17" s="0" t="n">
+      <c r="M17" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N17" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P17" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R17" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T17" s="0" t="s">
+      <c r="N17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U17" s="0" t="s">
+      <c r="U17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="V17" s="0" t="s">
+      <c r="V17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W17" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X17" s="0" t="s">
+      <c r="W17" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X17" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D18" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="0" t="s">
+      <c r="D18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="0" t="s">
+      <c r="F18" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="0" t="s">
+      <c r="G18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H18" s="0" t="n">
+      <c r="H18" s="4" t="n">
         <v>33.998232</v>
       </c>
-      <c r="I18" s="0" t="n">
+      <c r="I18" s="4" t="n">
         <v>-6.845728</v>
       </c>
-      <c r="J18" s="0" t="n">
+      <c r="J18" s="4" t="n">
         <v>10106</v>
       </c>
-      <c r="K18" s="0" t="n">
+      <c r="K18" s="4" t="n">
         <v>745360421</v>
       </c>
-      <c r="L18" s="0" t="s">
+      <c r="L18" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M18" s="0" t="n">
+      <c r="M18" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N18" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O18" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P18" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q18" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R18" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S18" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T18" s="0" t="s">
+      <c r="N18" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T18" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U18" s="0" t="s">
+      <c r="U18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V18" s="0" t="s">
+      <c r="V18" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W18" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X18" s="0" t="s">
+      <c r="W18" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X18" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="0" t="s">
+      <c r="D19" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="0" t="s">
+      <c r="F19" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="0" t="s">
+      <c r="G19" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H19" s="0" t="n">
+      <c r="H19" s="4" t="n">
         <v>33.998232</v>
       </c>
-      <c r="I19" s="0" t="n">
+      <c r="I19" s="4" t="n">
         <v>-6.845728</v>
       </c>
-      <c r="J19" s="0" t="n">
+      <c r="J19" s="4" t="n">
         <v>10106</v>
       </c>
-      <c r="K19" s="0" t="n">
+      <c r="K19" s="4" t="n">
         <v>676186831</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="M19" s="0" t="n">
+      <c r="M19" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N19" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P19" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q19" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R19" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T19" s="0" t="s">
+      <c r="N19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T19" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U19" s="0" t="s">
+      <c r="U19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V19" s="0" t="s">
+      <c r="V19" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W19" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X19" s="0" t="s">
+      <c r="W19" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X19" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C20" s="0" t="s">
+      <c r="C20" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="0" t="s">
+      <c r="D20" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="0" t="s">
+      <c r="G20" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H20" s="0" t="n">
+      <c r="H20" s="4" t="n">
         <v>34.017502</v>
       </c>
-      <c r="I20" s="0" t="n">
+      <c r="I20" s="4" t="n">
         <v>-6.834745</v>
       </c>
-      <c r="J20" s="0" t="n">
+      <c r="J20" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="K20" s="0" t="n">
+      <c r="K20" s="4" t="n">
         <v>766074745</v>
       </c>
-      <c r="L20" s="0" t="s">
+      <c r="L20" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M20" s="0" t="n">
+      <c r="M20" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N20" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O20" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P20" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q20" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R20" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T20" s="0" t="s">
+      <c r="N20" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U20" s="0" t="s">
+      <c r="U20" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V20" s="0" t="s">
+      <c r="V20" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W20" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X20" s="0" t="s">
+      <c r="W20" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D21" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="0" t="s">
+      <c r="D21" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="0" t="s">
+      <c r="F21" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="0" t="s">
+      <c r="G21" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H21" s="0" t="n">
+      <c r="H21" s="4" t="n">
         <v>34.017502</v>
       </c>
-      <c r="I21" s="0" t="n">
+      <c r="I21" s="4" t="n">
         <v>-6.834745</v>
       </c>
-      <c r="J21" s="0" t="n">
+      <c r="J21" s="4" t="n">
         <v>10000</v>
       </c>
-      <c r="K21" s="0" t="n">
+      <c r="K21" s="4" t="n">
         <v>773606891</v>
       </c>
-      <c r="L21" s="0" t="s">
+      <c r="L21" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="M21" s="0" t="n">
+      <c r="M21" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N21" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O21" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P21" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q21" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R21" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T21" s="0" t="s">
+      <c r="N21" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R21" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U21" s="0" t="s">
+      <c r="U21" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V21" s="0" t="s">
+      <c r="V21" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W21" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X21" s="0" t="s">
+      <c r="W21" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X21" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C22" s="0" t="s">
+      <c r="C22" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22" s="0" t="s">
+      <c r="D22" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="0" t="s">
+      <c r="F22" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="0" t="s">
+      <c r="G22" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H22" s="0" t="n">
+      <c r="H22" s="4" t="n">
         <v>33.986608</v>
       </c>
-      <c r="I22" s="0" t="n">
+      <c r="I22" s="4" t="n">
         <v>-6.828873</v>
       </c>
-      <c r="J22" s="0" t="n">
+      <c r="J22" s="4" t="n">
         <v>10105</v>
       </c>
-      <c r="K22" s="0" t="n">
+      <c r="K22" s="4" t="n">
         <v>787248921</v>
       </c>
-      <c r="L22" s="0" t="s">
+      <c r="L22" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M22" s="0" t="n">
+      <c r="M22" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N22" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O22" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P22" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q22" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R22" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T22" s="0" t="s">
+      <c r="N22" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U22" s="0" t="s">
+      <c r="U22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V22" s="0" t="s">
+      <c r="V22" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W22" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X22" s="0" t="s">
+      <c r="W22" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X22" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="C23" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D23" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="0" t="s">
+      <c r="D23" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F23" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="0" t="s">
+      <c r="G23" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="0" t="n">
+      <c r="H23" s="4" t="n">
         <v>33.986608</v>
       </c>
-      <c r="I23" s="0" t="n">
+      <c r="I23" s="4" t="n">
         <v>-6.828873</v>
       </c>
-      <c r="J23" s="0" t="n">
+      <c r="J23" s="4" t="n">
         <v>10105</v>
       </c>
-      <c r="K23" s="0" t="n">
+      <c r="K23" s="4" t="n">
         <v>878691008</v>
       </c>
-      <c r="L23" s="0" t="s">
+      <c r="L23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="M23" s="0" t="n">
+      <c r="M23" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N23" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O23" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P23" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q23" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R23" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T23" s="0" t="s">
+      <c r="N23" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U23" s="0" t="s">
+      <c r="U23" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V23" s="0" t="s">
+      <c r="V23" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W23" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X23" s="0" t="s">
+      <c r="W23" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X23" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D24" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="G24" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H24" s="0" t="n">
+      <c r="H24" s="4" t="n">
         <v>33.978103</v>
       </c>
-      <c r="I24" s="0" t="n">
+      <c r="I24" s="4" t="n">
         <v>-6.867849</v>
       </c>
-      <c r="J24" s="0" t="n">
+      <c r="J24" s="4" t="n">
         <v>10112</v>
       </c>
-      <c r="K24" s="0" t="n">
+      <c r="K24" s="4" t="n">
         <v>838412388</v>
       </c>
-      <c r="L24" s="0" t="s">
+      <c r="L24" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M24" s="0" t="n">
+      <c r="M24" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N24" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q24" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T24" s="0" t="s">
+      <c r="N24" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R24" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U24" s="0" t="s">
+      <c r="U24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V24" s="0" t="s">
+      <c r="V24" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W24" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X24" s="0" t="s">
+      <c r="W24" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X24" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D25" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="0" t="s">
+      <c r="D25" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="F25" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="G25" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="0" t="n">
+      <c r="H25" s="4" t="n">
         <v>33.978103</v>
       </c>
-      <c r="I25" s="0" t="n">
+      <c r="I25" s="4" t="n">
         <v>-6.867849</v>
       </c>
-      <c r="J25" s="0" t="n">
+      <c r="J25" s="4" t="n">
         <v>10112</v>
       </c>
-      <c r="K25" s="0" t="n">
+      <c r="K25" s="4" t="n">
         <v>719952201</v>
       </c>
-      <c r="L25" s="0" t="s">
+      <c r="L25" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="M25" s="0" t="n">
+      <c r="M25" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N25" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O25" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P25" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q25" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R25" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T25" s="0" t="s">
+      <c r="N25" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P25" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q25" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U25" s="0" t="s">
+      <c r="U25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V25" s="0" t="s">
+      <c r="V25" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="W25" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X25" s="0" t="s">
+      <c r="W25" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X25" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="C26" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D26" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="0" t="s">
+      <c r="D26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="F26" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="0" t="s">
+      <c r="G26" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H26" s="0" t="n">
+      <c r="H26" s="4" t="n">
         <v>33.953931</v>
       </c>
-      <c r="I26" s="0" t="n">
+      <c r="I26" s="4" t="n">
         <v>-6.874735</v>
       </c>
-      <c r="J26" s="0" t="n">
+      <c r="J26" s="4" t="n">
         <v>10104</v>
       </c>
-      <c r="K26" s="0" t="n">
+      <c r="K26" s="4" t="n">
         <v>751913644</v>
       </c>
-      <c r="L26" s="0" t="s">
+      <c r="L26" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M26" s="0" t="n">
+      <c r="M26" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N26" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O26" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P26" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q26" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R26" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S26" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T26" s="0" t="s">
+      <c r="N26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R26" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U26" s="0" t="s">
+      <c r="U26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V26" s="0" t="s">
+      <c r="V26" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W26" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X26" s="0" t="s">
+      <c r="W26" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X26" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D27" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="0" t="s">
+      <c r="D27" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="F27" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G27" s="0" t="s">
+      <c r="G27" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H27" s="0" t="n">
+      <c r="H27" s="4" t="n">
         <v>33.953931</v>
       </c>
-      <c r="I27" s="0" t="n">
+      <c r="I27" s="4" t="n">
         <v>-6.874735</v>
       </c>
-      <c r="J27" s="0" t="n">
+      <c r="J27" s="4" t="n">
         <v>10104</v>
       </c>
-      <c r="K27" s="0" t="n">
+      <c r="K27" s="4" t="n">
         <v>956537434</v>
       </c>
-      <c r="L27" s="0" t="s">
+      <c r="L27" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="M27" s="0" t="n">
+      <c r="M27" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O27" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P27" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q27" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R27" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T27" s="0" t="s">
+      <c r="N27" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U27" s="0" t="s">
+      <c r="U27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V27" s="0" t="s">
+      <c r="V27" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="W27" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X27" s="0" t="s">
+      <c r="W27" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X27" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="C28" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="0" t="s">
+      <c r="D28" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F28" s="0" t="s">
+      <c r="F28" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G28" s="0" t="s">
+      <c r="G28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H28" s="0" t="n">
+      <c r="H28" s="4" t="n">
         <v>34.027757</v>
       </c>
-      <c r="I28" s="0" t="n">
+      <c r="I28" s="4" t="n">
         <v>-6.834147</v>
       </c>
-      <c r="J28" s="0" t="n">
+      <c r="J28" s="4" t="n">
         <v>10036</v>
       </c>
-      <c r="K28" s="0" t="n">
+      <c r="K28" s="4" t="n">
         <v>965639376</v>
       </c>
-      <c r="L28" s="0" t="s">
+      <c r="L28" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="0" t="n">
+      <c r="M28" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N28" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P28" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q28" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R28" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T28" s="0" t="s">
+      <c r="N28" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U28" s="0" t="s">
+      <c r="U28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V28" s="0" t="s">
+      <c r="V28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W28" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X28" s="0" t="s">
+      <c r="W28" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X28" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C29" s="0" t="s">
+      <c r="C29" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D29" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="0" t="s">
+      <c r="D29" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="F29" s="0" t="s">
+      <c r="F29" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G29" s="0" t="s">
+      <c r="G29" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H29" s="0" t="n">
+      <c r="H29" s="4" t="n">
         <v>34.027757</v>
       </c>
-      <c r="I29" s="0" t="n">
+      <c r="I29" s="4" t="n">
         <v>-6.834147</v>
       </c>
-      <c r="J29" s="0" t="n">
+      <c r="J29" s="4" t="n">
         <v>10036</v>
       </c>
-      <c r="K29" s="0" t="n">
+      <c r="K29" s="4" t="n">
         <v>781039430</v>
       </c>
-      <c r="L29" s="0" t="s">
+      <c r="L29" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="0" t="n">
+      <c r="M29" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N29" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O29" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q29" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R29" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T29" s="0" t="s">
+      <c r="N29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q29" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U29" s="0" t="s">
+      <c r="U29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V29" s="0" t="s">
+      <c r="V29" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="W29" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X29" s="0" t="s">
+      <c r="W29" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X29" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C30" s="0" t="s">
+      <c r="C30" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="0" t="s">
+      <c r="D30" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="F30" s="0" t="s">
+      <c r="F30" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G30" s="0" t="s">
+      <c r="G30" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H30" s="0" t="n">
+      <c r="H30" s="4" t="n">
         <v>33.995612</v>
       </c>
-      <c r="I30" s="0" t="n">
+      <c r="I30" s="4" t="n">
         <v>-6.815281</v>
       </c>
-      <c r="J30" s="0" t="n">
+      <c r="J30" s="4" t="n">
         <v>10190</v>
       </c>
-      <c r="K30" s="0" t="n">
+      <c r="K30" s="4" t="n">
         <v>803062069</v>
       </c>
-      <c r="L30" s="0" t="s">
+      <c r="L30" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M30" s="0" t="n">
+      <c r="M30" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N30" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O30" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P30" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R30" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S30" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T30" s="0" t="s">
+      <c r="N30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P30" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q30" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U30" s="0" t="s">
+      <c r="U30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V30" s="0" t="s">
+      <c r="V30" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W30" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X30" s="0" t="s">
+      <c r="W30" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X30" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C31" s="0" t="s">
+      <c r="C31" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="0" t="s">
+      <c r="D31" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="F31" s="0" t="s">
+      <c r="F31" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="G31" s="0" t="s">
+      <c r="G31" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="4" t="n">
         <v>33.995612</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="4" t="n">
         <v>-6.815281</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="4" t="n">
         <v>10190</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="4" t="n">
         <v>731435978</v>
       </c>
-      <c r="L31" s="0" t="s">
+      <c r="L31" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="N31" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P31" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q31" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S31" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T31" s="0" t="s">
+      <c r="N31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U31" s="0" t="s">
+      <c r="U31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V31" s="0" t="s">
+      <c r="V31" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="W31" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X31" s="0" t="s">
+      <c r="W31" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="0" t="s">
+      <c r="A32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B32" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="C32" s="0" t="s">
+      <c r="C32" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D32" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="0" t="s">
+      <c r="D32" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F32" s="0" t="s">
+      <c r="F32" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="0" t="s">
+      <c r="G32" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H32" s="0" t="n">
+      <c r="H32" s="4" t="n">
         <v>33.52117</v>
       </c>
-      <c r="I32" s="0" t="n">
+      <c r="I32" s="4" t="n">
         <v>-5.453275</v>
       </c>
-      <c r="J32" s="0" t="n">
+      <c r="J32" s="4" t="n">
         <v>14022</v>
       </c>
-      <c r="K32" s="0" t="n">
+      <c r="K32" s="4" t="n">
         <v>779517433</v>
       </c>
-      <c r="L32" s="0" t="s">
+      <c r="L32" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M32" s="0" t="n">
+      <c r="M32" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N32" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O32" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P32" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q32" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R32" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T32" s="0" t="s">
+      <c r="N32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R32" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="U32" s="0" t="s">
+      <c r="U32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V32" s="0" t="s">
+      <c r="V32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X32" s="0" t="s">
+      <c r="W32" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X32" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
+      <c r="A33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>33333</v>
       </c>
-      <c r="C33" s="0" t="s">
+      <c r="C33" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D33" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="0" t="s">
+      <c r="D33" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F33" s="0" t="s">
+      <c r="F33" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="0" t="s">
+      <c r="G33" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="0" t="n">
+      <c r="H33" s="4" t="n">
         <v>33.52117</v>
       </c>
-      <c r="I33" s="0" t="n">
+      <c r="I33" s="4" t="n">
         <v>-5.453275</v>
       </c>
-      <c r="J33" s="0" t="n">
+      <c r="J33" s="4" t="n">
         <v>14022</v>
       </c>
-      <c r="K33" s="0" t="n">
+      <c r="K33" s="4" t="n">
         <v>993556086</v>
       </c>
-      <c r="L33" s="0" t="s">
+      <c r="L33" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="0" t="n">
+      <c r="M33" s="4" t="n">
         <v>12</v>
       </c>
-      <c r="N33" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O33" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P33" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q33" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R33" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="S33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="T33" s="0" t="s">
+      <c r="N33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="O33" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q33" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="S33" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="U33" s="0" t="s">
+      <c r="U33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="V33" s="0" t="s">
+      <c r="V33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="2" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
-      </c>
-      <c r="X33" s="0" t="s">
+      <c r="W33" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="X33" s="4" t="s">
         <v>40</v>
       </c>
     </row>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/registration_center_h.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/registration_center_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="129">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t xml:space="preserve">RBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">now()</t>
@@ -534,8 +537,8 @@
   </sheetPr>
   <dimension ref="A1:X33"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="W1" activeCellId="0" sqref="W:W"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="K9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="W2" activeCellId="0" sqref="W2:W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -685,23 +688,22 @@
       <c r="V2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W2" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10001</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>26</v>
@@ -713,7 +715,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H3" s="4" t="n">
         <v>34.52117</v>
@@ -752,7 +754,7 @@
         <v>36</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U3" s="4" t="s">
         <v>38</v>
@@ -760,12 +762,11 @@
       <c r="V3" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W3" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,16 +777,16 @@
         <v>10002</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>29</v>
@@ -803,7 +804,7 @@
         <v>753476995</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M4" s="4" t="n">
         <v>2</v>
@@ -835,35 +836,34 @@
       <c r="V4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W4" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10002</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" s="4" t="n">
         <v>34.360207</v>
@@ -878,7 +878,7 @@
         <v>984996886</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="4" t="n">
         <v>2</v>
@@ -902,7 +902,7 @@
         <v>36</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U5" s="4" t="s">
         <v>38</v>
@@ -910,12 +910,11 @@
       <c r="V5" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="W5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W5" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -926,16 +925,16 @@
         <v>10003</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>29</v>
@@ -953,7 +952,7 @@
         <v>734239083</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M6" s="4" t="n">
         <v>4</v>
@@ -983,37 +982,36 @@
         <v>38</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="n">
         <v>34.405692</v>
@@ -1028,7 +1026,7 @@
         <v>675470523</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M7" s="4" t="n">
         <v>4</v>
@@ -1052,20 +1050,19 @@
         <v>36</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U7" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="W7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1076,16 +1073,16 @@
         <v>10004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>29</v>
@@ -1103,7 +1100,7 @@
         <v>937997757</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M8" s="4" t="n">
         <v>2</v>
@@ -1135,35 +1132,34 @@
       <c r="V8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10004</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H9" s="4" t="n">
         <v>34.287879</v>
@@ -1178,7 +1174,7 @@
         <v>852492117</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M9" s="4" t="n">
         <v>2</v>
@@ -1202,7 +1198,7 @@
         <v>36</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>38</v>
@@ -1210,12 +1206,11 @@
       <c r="V9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1226,19 +1221,19 @@
         <v>10005</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H10" s="4" t="n">
         <v>34.256414</v>
@@ -1253,7 +1248,7 @@
         <v>887311749</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="4" t="n">
         <v>1</v>
@@ -1283,37 +1278,36 @@
         <v>38</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X10" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10005</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>34.256414</v>
@@ -1328,7 +1322,7 @@
         <v>658302699</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M11" s="4" t="n">
         <v>1</v>
@@ -1352,20 +1346,19 @@
         <v>36</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="W11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>67</v>
+      </c>
+      <c r="W11" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1376,19 +1369,19 @@
         <v>10006</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H12" s="4" t="n">
         <v>34.262477</v>
@@ -1403,7 +1396,7 @@
         <v>915790305</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="4" t="n">
         <v>5</v>
@@ -1433,37 +1426,36 @@
         <v>38</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10006</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H13" s="4" t="n">
         <v>34.262477</v>
@@ -1478,7 +1470,7 @@
         <v>888439793</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M13" s="4" t="n">
         <v>5</v>
@@ -1502,20 +1494,19 @@
         <v>36</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="W13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>73</v>
+      </c>
+      <c r="W13" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,16 +1517,16 @@
         <v>10007</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>29</v>
@@ -1553,7 +1544,7 @@
         <v>811552880</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="4" t="n">
         <v>2</v>
@@ -1583,37 +1574,36 @@
         <v>38</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H15" s="4" t="n">
         <v>34.192861</v>
@@ -1628,7 +1618,7 @@
         <v>753640112</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M15" s="4" t="n">
         <v>2</v>
@@ -1652,20 +1642,19 @@
         <v>36</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U15" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>79</v>
+      </c>
+      <c r="W15" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1676,16 +1665,16 @@
         <v>10008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>29</v>
@@ -1703,7 +1692,7 @@
         <v>695325692</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="4" t="n">
         <v>2</v>
@@ -1733,37 +1722,36 @@
         <v>38</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="W16" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10008</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H17" s="4" t="n">
         <v>34.522414</v>
@@ -1778,7 +1766,7 @@
         <v>862899075</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M17" s="4" t="n">
         <v>2</v>
@@ -1802,20 +1790,19 @@
         <v>36</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U17" s="4" t="s">
         <v>38</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="W17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X17" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1826,16 +1813,16 @@
         <v>10009</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>29</v>
@@ -1853,7 +1840,7 @@
         <v>745360421</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M18" s="4" t="n">
         <v>2</v>
@@ -1883,37 +1870,36 @@
         <v>39</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X18" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10009</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H19" s="4" t="n">
         <v>33.998232</v>
@@ -1928,7 +1914,7 @@
         <v>676186831</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M19" s="4" t="n">
         <v>2</v>
@@ -1952,20 +1938,19 @@
         <v>36</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U19" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V19" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X19" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,16 +1961,16 @@
         <v>10010</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>29</v>
@@ -2003,7 +1988,7 @@
         <v>766074745</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M20" s="4" t="n">
         <v>2</v>
@@ -2033,37 +2018,36 @@
         <v>39</v>
       </c>
       <c r="V20" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="W20" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X20" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10010</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H21" s="4" t="n">
         <v>34.017502</v>
@@ -2078,7 +2062,7 @@
         <v>773606891</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M21" s="4" t="n">
         <v>2</v>
@@ -2102,20 +2086,19 @@
         <v>36</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U21" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="W21" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X21" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2126,16 +2109,16 @@
         <v>10011</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>29</v>
@@ -2153,7 +2136,7 @@
         <v>787248921</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M22" s="4" t="n">
         <v>2</v>
@@ -2183,37 +2166,36 @@
         <v>39</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="W22" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X22" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10011</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H23" s="4" t="n">
         <v>33.986608</v>
@@ -2228,7 +2210,7 @@
         <v>878691008</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M23" s="4" t="n">
         <v>2</v>
@@ -2252,20 +2234,19 @@
         <v>36</v>
       </c>
       <c r="T23" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U23" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V23" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="W23" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X23" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,16 +2257,16 @@
         <v>10012</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>29</v>
@@ -2303,7 +2284,7 @@
         <v>838412388</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M24" s="4" t="n">
         <v>2</v>
@@ -2333,37 +2314,36 @@
         <v>39</v>
       </c>
       <c r="V24" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X24" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10012</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H25" s="4" t="n">
         <v>33.978103</v>
@@ -2378,7 +2358,7 @@
         <v>719952201</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="M25" s="4" t="n">
         <v>2</v>
@@ -2402,20 +2382,19 @@
         <v>36</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U25" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V25" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X25" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2426,16 +2405,16 @@
         <v>10013</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>29</v>
@@ -2453,7 +2432,7 @@
         <v>751913644</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M26" s="4" t="n">
         <v>2</v>
@@ -2483,37 +2462,36 @@
         <v>39</v>
       </c>
       <c r="V26" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="W26" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X26" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10013</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H27" s="4" t="n">
         <v>33.953931</v>
@@ -2528,7 +2506,7 @@
         <v>956537434</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M27" s="4" t="n">
         <v>2</v>
@@ -2552,20 +2530,19 @@
         <v>36</v>
       </c>
       <c r="T27" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U27" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V27" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="W27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>93</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X27" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2576,16 +2553,16 @@
         <v>10014</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>29</v>
@@ -2603,7 +2580,7 @@
         <v>965639376</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M28" s="4" t="n">
         <v>2</v>
@@ -2633,37 +2610,36 @@
         <v>39</v>
       </c>
       <c r="V28" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X28" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>10014</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H29" s="4" t="n">
         <v>34.027757</v>
@@ -2678,7 +2654,7 @@
         <v>781039430</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M29" s="4" t="n">
         <v>2</v>
@@ -2702,20 +2678,19 @@
         <v>36</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U29" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V29" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="W29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X29" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2726,16 +2701,16 @@
         <v>10015</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>29</v>
@@ -2753,7 +2728,7 @@
         <v>803062069</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M30" s="4" t="n">
         <v>2</v>
@@ -2783,37 +2758,36 @@
         <v>39</v>
       </c>
       <c r="V30" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X30" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>10015</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>26</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H31" s="4" t="n">
         <v>33.995612</v>
@@ -2828,7 +2802,7 @@
         <v>731435978</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M31" s="4" t="n">
         <v>2</v>
@@ -2852,20 +2826,19 @@
         <v>36</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U31" s="4" t="s">
         <v>39</v>
       </c>
       <c r="V31" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="W31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+        <v>105</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X31" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2876,7 +2849,7 @@
         <v>33333</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>26</v>
@@ -2935,23 +2908,22 @@
       <c r="V32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W32" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W32" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X32" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B33" s="1" t="n">
         <v>33333</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>26</v>
@@ -2963,7 +2935,7 @@
         <v>28</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H33" s="4" t="n">
         <v>33.52117</v>
@@ -3002,7 +2974,7 @@
         <v>36</v>
       </c>
       <c r="T33" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="U33" s="4" t="s">
         <v>39</v>
@@ -3010,12 +2982,11 @@
       <c r="V33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="W33" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="W33" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="X33" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
